--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -382,7 +382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,7 +459,7 @@
         <v>42059</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Navn</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Alexander Trøstrup Steuernagel</t>
   </si>
   <si>
-    <t>System analyst</t>
-  </si>
-  <si>
     <t>Opsætning af visionsdokument til udfyldelse med kunden</t>
   </si>
   <si>
@@ -52,6 +49,12 @@
   </si>
   <si>
     <t>Tidsregistrering</t>
+  </si>
+  <si>
+    <t>Requirements Specifier</t>
+  </si>
+  <si>
+    <t>Visionsdokument og funktionelle og ikke-funktionelle krav</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,10 +451,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,15 +465,24 @@
         <v>0.75</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>42059</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Navn</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Any role</t>
   </si>
   <si>
-    <t>Tilknytning til repository PTECalculator2015</t>
-  </si>
-  <si>
     <t>Tidsregistrering</t>
   </si>
   <si>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>Visionsdokument og funktionelle og ikke-funktionelle krav</t>
+  </si>
+  <si>
+    <t>Risikoanalyse</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub - Tilknytning til repository PTECalculator2015</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,7 +402,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -454,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,96 +485,86 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>42059</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>42059</v>
       </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4">
-        <v>42059</v>
+        <v>42060</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A16"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A19"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A20"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A21"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A22"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4">
-        <v>42059</v>
-      </c>
+      <c r="A23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Navn</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>GitHub - Tilknytning til repository PTECalculator2015</t>
+  </si>
+  <si>
+    <t>Test Analyst</t>
+  </si>
+  <si>
+    <t>Test case writing</t>
   </si>
 </sst>
 </file>
@@ -391,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,7 +408,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,12 +529,25 @@
       <c r="A9" s="4">
         <v>42060</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10"/>
+      <c r="A10" s="4">
+        <v>42060</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11"/>
+      <c r="A11" s="4">
+        <v>42060</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Navn</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Test case writing</t>
+  </si>
+  <si>
+    <t>Aktivitetsdiagram, domænemodel</t>
+  </si>
+  <si>
+    <t>Test case implementation</t>
+  </si>
+  <si>
+    <t>Test Designer</t>
   </si>
 </sst>
 </file>
@@ -408,7 +417,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,22 +550,64 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4">
-        <v>42060</v>
+        <v>42061</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4">
-        <v>42060</v>
+        <v>42061</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12"/>
+      <c r="A12" s="4">
+        <v>42062</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13"/>
+      <c r="A13" s="4">
+        <v>42062</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14"/>
+      <c r="A14" s="4">
+        <v>42062</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Navn</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Test Designer</t>
+  </si>
+  <si>
+    <t>Implementer</t>
+  </si>
+  <si>
+    <t>Implemented Use case 4</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,7 +423,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +612,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4">
-        <v>42062</v>
+        <v>42068</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Navn</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Implemented Use case 4</t>
+  </si>
+  <si>
+    <t>Brugertest</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -625,7 +628,18 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15"/>
+      <c r="A15" s="4">
+        <v>42069</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Navn</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Brugertest</t>
+  </si>
+  <si>
+    <t>UC7, AD til UC7, OC-8</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,7 +429,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,7 +645,18 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16"/>
+      <c r="A16" s="4">
+        <v>42072</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Navn</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>UC7, AD til UC7, OC-8</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>SD og DCD for UC3 og OC-4</t>
+  </si>
+  <si>
+    <t>Total antal timer:</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,7 +449,7 @@
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -448,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -462,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>42058</v>
       </c>
@@ -476,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>42059</v>
       </c>
@@ -489,8 +498,15 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14+B15+B16+B17</f>
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>42059</v>
       </c>
@@ -504,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>42059</v>
       </c>
@@ -518,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>42059</v>
       </c>
@@ -532,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>42059</v>
       </c>
@@ -546,7 +562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>42060</v>
       </c>
@@ -560,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>42061</v>
       </c>
@@ -574,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>42061</v>
       </c>
@@ -588,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>42062</v>
       </c>
@@ -602,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>42062</v>
       </c>
@@ -616,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>42068</v>
       </c>
@@ -630,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>42069</v>
       </c>
@@ -644,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>42072</v>
       </c>
@@ -658,25 +674,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>42073</v>
+      </c>
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:4">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4">
       <c r="A23"/>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Alexander).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Navn</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Total antal timer:</t>
+  </si>
+  <si>
+    <t>UC3 Bøjningsmoment MB</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +441,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,8 +505,8 @@
         <v>25</v>
       </c>
       <c r="I4">
-        <f xml:space="preserve"> B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14+B15+B16+B17</f>
-        <v>23.75</v>
+        <f xml:space="preserve"> B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14+B15+B16+B17+B18</f>
+        <v>25.75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -689,7 +692,18 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18"/>
+      <c r="A18" s="4">
+        <v>42073</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19"/>
